--- a/healthman-mock/v2/data/classes/设计艺术学院.xlsx
+++ b/healthman-mock/v2/data/classes/设计艺术学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000263</t>
+          <t>000031</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000073</t>
+          <t>000219</t>
         </is>
       </c>
     </row>
@@ -537,7 +538,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>000126</t>
         </is>
       </c>
     </row>
@@ -564,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000408</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000405</t>
+          <t>000103</t>
         </is>
       </c>
     </row>
@@ -618,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>000042</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000629</t>
+          <t>000050</t>
         </is>
       </c>
     </row>
@@ -672,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000291</t>
+          <t>000190</t>
         </is>
       </c>
     </row>
@@ -699,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000153</t>
+          <t>000077</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000895</t>
+          <t>000211</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000794</t>
+          <t>000069</t>
         </is>
       </c>
     </row>
@@ -780,7 +781,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>000003</t>
         </is>
       </c>
     </row>
@@ -807,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000812</t>
+          <t>000143</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>000209</t>
         </is>
       </c>
     </row>
@@ -861,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000774</t>
+          <t>000019</t>
         </is>
       </c>
     </row>
@@ -888,7 +889,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000295</t>
+          <t>000097</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000687</t>
+          <t>000003</t>
         </is>
       </c>
     </row>
@@ -942,7 +943,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000750</t>
+          <t>000127</t>
         </is>
       </c>
     </row>
@@ -969,7 +970,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000247</t>
+          <t>000064</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000827</t>
+          <t>000051</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000122</t>
+          <t>000099</t>
         </is>
       </c>
     </row>
